--- a/src/test/resources/config/data/SB/1/manuallyCalcDif.xlsx
+++ b/src/test/resources/config/data/SB/1/manuallyCalcDif.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WSO2Telco_Automation\api-manager-tests\src\test\resources\config\data\SB\1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" activeTab="0"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="53">
   <si>
     <t>Subscriber</t>
   </si>
@@ -60,113 +55,130 @@
     <t>Grand Total</t>
   </si>
   <si>
+    <t>AutInvSP1</t>
+  </si>
+  <si>
+    <t>AutInvSP1_AutInvSP1_app2</t>
+  </si>
+  <si>
+    <t>ussd</t>
+  </si>
+  <si>
+    <t>v1</t>
+  </si>
+  <si>
+    <t>CELCOM</t>
+  </si>
+  <si>
+    <t>Send USSD</t>
+  </si>
+  <si>
+    <t>u1</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>Rs 0.0</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>admin_sms_test</t>
-  </si>
-  <si>
     <t>smsmessaging</t>
   </si>
   <si>
-    <t>v1</t>
+    <t>Send SMS</t>
+  </si>
+  <si>
+    <t>SM1</t>
+  </si>
+  <si>
+    <t>Retrive SMS</t>
+  </si>
+  <si>
+    <t>SM2</t>
+  </si>
+  <si>
+    <t>Query SMS Delivery</t>
+  </si>
+  <si>
+    <t>Delivery Subscription</t>
+  </si>
+  <si>
+    <t>Stop Delivery Subscription</t>
+  </si>
+  <si>
+    <t>Retrive SMS Subscription</t>
+  </si>
+  <si>
+    <t>Stop Retrive SMS Subscription</t>
+  </si>
+  <si>
+    <t>SMS Inbound Notification</t>
+  </si>
+  <si>
+    <t>payment</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>Refund</t>
+  </si>
+  <si>
+    <t>RF2</t>
+  </si>
+  <si>
+    <t>AutInvSP1_AutInvSP1_app3</t>
   </si>
   <si>
     <t>DIALOG</t>
   </si>
   <si>
-    <t>Send SMS</t>
-  </si>
-  <si>
-    <t>SM1</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>Rs 0.0</t>
-  </si>
-  <si>
-    <t>Retrive SMS</t>
-  </si>
-  <si>
-    <t>SM2</t>
-  </si>
-  <si>
-    <t>Query SMS Delivery</t>
-  </si>
-  <si>
-    <t>Delivery Subscription</t>
-  </si>
-  <si>
-    <t>Stop Delivery Subscription</t>
-  </si>
-  <si>
-    <t>Retrive SMS Subscription</t>
-  </si>
-  <si>
-    <t>Stop Retrive SMS Subscription</t>
-  </si>
-  <si>
-    <t>SMS Inbound Notification</t>
-  </si>
-  <si>
-    <t>admin_kiri_pani</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>Rs 1.0</t>
-  </si>
-  <si>
-    <t>Rs 21.0</t>
-  </si>
-  <si>
-    <t>admin_payment_test</t>
-  </si>
-  <si>
-    <t>payment</t>
-  </si>
-  <si>
-    <t>Charge</t>
-  </si>
-  <si>
-    <t>p1</t>
-  </si>
-  <si>
-    <t>Refund</t>
-  </si>
-  <si>
-    <t>RF2</t>
-  </si>
-  <si>
-    <t>admin_payment_test1</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>1.200000000000001</t>
+    <t>AutInvSP1_AutInvSP1_app1</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>Rs 100.0</t>
+  </si>
+  <si>
+    <t>AutInvSP1_AutInvSP1_app4</t>
   </si>
   <si>
     <t>Total Amount</t>
   </si>
   <si>
-    <t>Rs 5.0</t>
-  </si>
-  <si>
-    <t>Rs 37.00000000000003</t>
-  </si>
-  <si>
-    <t>Rs 7.0</t>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>Rs 24.0</t>
+  </si>
+  <si>
+    <t>Rs 4.5</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>Rs 140.0</t>
+  </si>
+  <si>
+    <t>Rs 7.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -198,7 +210,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -208,9 +220,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -227,44 +236,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -292,31 +301,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -344,23 +336,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -372,154 +347,182 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="B32" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -584,8 +587,8 @@
       <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
-        <v>20</v>
+      <c r="H2" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
@@ -600,33 +603,33 @@
         <v>21</v>
       </c>
       <c r="M2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="I3" t="s">
         <v>20</v>
@@ -641,33 +644,33 @@
         <v>21</v>
       </c>
       <c r="M3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="I4" t="s">
         <v>20</v>
@@ -682,30 +685,30 @@
         <v>21</v>
       </c>
       <c r="M4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
         <v>20</v>
@@ -723,30 +726,30 @@
         <v>21</v>
       </c>
       <c r="M5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
         <v>20</v>
@@ -764,30 +767,30 @@
         <v>21</v>
       </c>
       <c r="M6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
         <v>20</v>
@@ -805,30 +808,30 @@
         <v>21</v>
       </c>
       <c r="M7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s">
         <v>20</v>
@@ -846,30 +849,30 @@
         <v>21</v>
       </c>
       <c r="M8" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H9" t="s">
         <v>20</v>
@@ -887,154 +890,151 @@
         <v>21</v>
       </c>
       <c r="M9" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I10" t="s">
         <v>20</v>
       </c>
       <c r="J10" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="K10" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L10" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M10" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" t="s">
-        <v>20</v>
+        <v>36</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="J11" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="K11" t="s">
         <v>21</v>
       </c>
       <c r="L11" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="M11" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
         <v>24</v>
       </c>
-      <c r="G12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>25</v>
       </c>
-      <c r="G13" t="s">
-        <v>23</v>
-      </c>
       <c r="H13" t="s">
         <v>20</v>
       </c>
@@ -1051,30 +1051,30 @@
         <v>21</v>
       </c>
       <c r="M13" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
         <v>26</v>
       </c>
       <c r="G14" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H14" t="s">
         <v>20</v>
@@ -1092,35 +1092,35 @@
         <v>21</v>
       </c>
       <c r="M14" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G15" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H15" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" t="s">
         <v>20</v>
       </c>
       <c r="J15" t="s">
@@ -1133,30 +1133,30 @@
         <v>21</v>
       </c>
       <c r="M15" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H16" t="s">
         <v>20</v>
@@ -1174,32 +1174,32 @@
         <v>21</v>
       </c>
       <c r="M16" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
         <v>20</v>
       </c>
       <c r="I17" t="s">
@@ -1215,30 +1215,30 @@
         <v>21</v>
       </c>
       <c r="M17" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H18" t="s">
         <v>20</v>
@@ -1256,30 +1256,30 @@
         <v>21</v>
       </c>
       <c r="M18" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="H19" t="s">
         <v>20</v>
@@ -1297,39 +1297,39 @@
         <v>21</v>
       </c>
       <c r="M19" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="J20" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="K20" t="s">
         <v>21</v>
@@ -1338,33 +1338,33 @@
         <v>21</v>
       </c>
       <c r="M20" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="G21" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H21" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="I21" t="s">
         <v>20</v>
@@ -1379,51 +1379,1443 @@
         <v>21</v>
       </c>
       <c r="M21" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="H22" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="I22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" t="s">
+        <v>21</v>
+      </c>
+      <c r="M28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J29" t="s">
+        <v>47</v>
+      </c>
+      <c r="K29" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" t="s">
+        <v>48</v>
+      </c>
+      <c r="M29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" t="s">
+        <v>21</v>
+      </c>
+      <c r="M31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" t="s">
+        <v>42</v>
+      </c>
+      <c r="I34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" t="s">
         <v>43</v>
       </c>
-      <c r="J22" t="s">
-        <v>46</v>
-      </c>
-      <c r="K22" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" t="s">
+      <c r="K34" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" t="s">
+        <v>21</v>
+      </c>
+      <c r="K35" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" t="s">
+        <v>21</v>
+      </c>
+      <c r="M35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37" t="s">
+        <v>21</v>
+      </c>
+      <c r="L37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" t="s">
+        <v>21</v>
+      </c>
+      <c r="K38" t="s">
+        <v>21</v>
+      </c>
+      <c r="L38" t="s">
+        <v>21</v>
+      </c>
+      <c r="M38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" t="s">
+        <v>21</v>
+      </c>
+      <c r="K39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" t="s">
         <v>44</v>
       </c>
-      <c r="M22" t="s">
+      <c r="C40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40" t="s">
+        <v>25</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I40" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" t="s">
+        <v>21</v>
+      </c>
+      <c r="K40" t="s">
+        <v>21</v>
+      </c>
+      <c r="L40" t="s">
+        <v>21</v>
+      </c>
+      <c r="M40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I41" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" t="s">
+        <v>21</v>
+      </c>
+      <c r="K41" t="s">
+        <v>21</v>
+      </c>
+      <c r="L41" t="s">
+        <v>21</v>
+      </c>
+      <c r="M41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" t="s">
+        <v>21</v>
+      </c>
+      <c r="K42" t="s">
+        <v>21</v>
+      </c>
+      <c r="L42" t="s">
+        <v>21</v>
+      </c>
+      <c r="M42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" t="s">
+        <v>29</v>
+      </c>
+      <c r="G43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" t="s">
+        <v>21</v>
+      </c>
+      <c r="K43" t="s">
+        <v>21</v>
+      </c>
+      <c r="L43" t="s">
+        <v>21</v>
+      </c>
+      <c r="M43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" t="s">
+        <v>30</v>
+      </c>
+      <c r="G44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" t="s">
+        <v>21</v>
+      </c>
+      <c r="K44" t="s">
+        <v>21</v>
+      </c>
+      <c r="L44" t="s">
+        <v>21</v>
+      </c>
+      <c r="M44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" t="s">
+        <v>21</v>
+      </c>
+      <c r="K45" t="s">
+        <v>21</v>
+      </c>
+      <c r="L45" t="s">
+        <v>21</v>
+      </c>
+      <c r="M45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" t="s">
+        <v>21</v>
+      </c>
+      <c r="K46" t="s">
+        <v>21</v>
+      </c>
+      <c r="L46" t="s">
+        <v>21</v>
+      </c>
+      <c r="M46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" t="s">
+        <v>20</v>
+      </c>
+      <c r="I47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47" t="s">
+        <v>21</v>
+      </c>
+      <c r="K47" t="s">
+        <v>21</v>
+      </c>
+      <c r="L47" t="s">
+        <v>21</v>
+      </c>
+      <c r="M47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" t="s">
+        <v>25</v>
+      </c>
+      <c r="H48" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48" t="s">
+        <v>21</v>
+      </c>
+      <c r="K48" t="s">
+        <v>21</v>
+      </c>
+      <c r="L48" t="s">
+        <v>21</v>
+      </c>
+      <c r="M48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" t="s">
+        <v>22</v>
+      </c>
+      <c r="F49" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49" t="s">
+        <v>21</v>
+      </c>
+      <c r="K49" t="s">
+        <v>21</v>
+      </c>
+      <c r="L49" t="s">
+        <v>21</v>
+      </c>
+      <c r="M49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" t="s">
+        <v>28</v>
+      </c>
+      <c r="G50" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50" t="s">
+        <v>20</v>
+      </c>
+      <c r="J50" t="s">
+        <v>21</v>
+      </c>
+      <c r="K50" t="s">
+        <v>21</v>
+      </c>
+      <c r="L50" t="s">
+        <v>21</v>
+      </c>
+      <c r="M50" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G51" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51" t="s">
+        <v>20</v>
+      </c>
+      <c r="I51" t="s">
+        <v>20</v>
+      </c>
+      <c r="J51" t="s">
+        <v>21</v>
+      </c>
+      <c r="K51" t="s">
+        <v>21</v>
+      </c>
+      <c r="L51" t="s">
+        <v>21</v>
+      </c>
+      <c r="M51" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" t="s">
+        <v>30</v>
+      </c>
+      <c r="G52" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52" t="s">
+        <v>20</v>
+      </c>
+      <c r="J52" t="s">
+        <v>21</v>
+      </c>
+      <c r="K52" t="s">
+        <v>21</v>
+      </c>
+      <c r="L52" t="s">
+        <v>21</v>
+      </c>
+      <c r="M52" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" t="s">
+        <v>22</v>
+      </c>
+      <c r="E53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" t="s">
+        <v>31</v>
+      </c>
+      <c r="G53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H53" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53" t="s">
+        <v>20</v>
+      </c>
+      <c r="J53" t="s">
+        <v>21</v>
+      </c>
+      <c r="K53" t="s">
+        <v>21</v>
+      </c>
+      <c r="L53" t="s">
+        <v>21</v>
+      </c>
+      <c r="M53" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" t="s">
+        <v>22</v>
+      </c>
+      <c r="F54" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54" t="s">
+        <v>20</v>
+      </c>
+      <c r="I54" t="s">
+        <v>20</v>
+      </c>
+      <c r="J54" t="s">
+        <v>21</v>
+      </c>
+      <c r="K54" t="s">
+        <v>21</v>
+      </c>
+      <c r="L54" t="s">
+        <v>21</v>
+      </c>
+      <c r="M54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" t="s">
+        <v>33</v>
+      </c>
+      <c r="G55" t="s">
+        <v>27</v>
+      </c>
+      <c r="H55" t="s">
+        <v>20</v>
+      </c>
+      <c r="I55" t="s">
+        <v>20</v>
+      </c>
+      <c r="J55" t="s">
+        <v>21</v>
+      </c>
+      <c r="K55" t="s">
+        <v>21</v>
+      </c>
+      <c r="L55" t="s">
+        <v>21</v>
+      </c>
+      <c r="M55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" t="s">
+        <v>22</v>
+      </c>
+      <c r="E56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" t="s">
+        <v>22</v>
+      </c>
+      <c r="H56" t="s">
+        <v>22</v>
+      </c>
+      <c r="I56" t="s">
         <v>45</v>
+      </c>
+      <c r="J56" t="s">
+        <v>51</v>
+      </c>
+      <c r="K56" t="s">
+        <v>21</v>
+      </c>
+      <c r="L56" t="s">
+        <v>52</v>
+      </c>
+      <c r="M56" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>